--- a/master_data/scada_files_info_master.xlsx
+++ b/master_data/scada_files_info_master.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47D272F-2741-4916-B9A2-A5F252D5E771}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6387A23F-33E4-418D-B230-2E8BE979DC70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="files" sheetId="1" r:id="rId1"/>
@@ -5031,27 +5031,9 @@
     <t>xlsx</t>
   </si>
   <si>
-    <t>S:\ICT</t>
-  </si>
-  <si>
-    <t>S:\genschact</t>
-  </si>
-  <si>
-    <t>S:\ONEMINREPORT</t>
-  </si>
-  <si>
-    <t>S:\State_gen</t>
-  </si>
-  <si>
-    <t>S:\volttemp</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>S:\DEMAND</t>
-  </si>
-  <si>
     <t>Demand_</t>
   </si>
   <si>
@@ -5236,6 +5218,24 @@
   </si>
   <si>
     <t>SUBSTN.IMEXP_WR.SYSTEM.BARC_TOTAL.ADDT.MW</t>
+  </si>
+  <si>
+    <t>\\10.2.100.51\scada\Reports\volttemp</t>
+  </si>
+  <si>
+    <t>\\10.2.100.51\scada\Reports\ICT</t>
+  </si>
+  <si>
+    <t>\\10.2.100.51\scada\Reports\genschact</t>
+  </si>
+  <si>
+    <t>\\10.2.100.51\scada\Reports\ONEMINREPORT</t>
+  </si>
+  <si>
+    <t>\\10.2.100.51\scada\Reports\State_gen</t>
+  </si>
+  <si>
+    <t>\\10.2.100.51\scada\Reports\DEMAND</t>
   </si>
 </sst>
 </file>
@@ -5653,8 +5653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5708,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1674</v>
+        <v>1733</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -5740,7 +5740,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1670</v>
+        <v>1734</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -5772,7 +5772,7 @@
         <v>1412</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1671</v>
+        <v>1735</v>
       </c>
       <c r="C4" t="s">
         <v>1665</v>
@@ -5804,7 +5804,7 @@
         <v>1413</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1672</v>
+        <v>1736</v>
       </c>
       <c r="C5" t="s">
         <v>1666</v>
@@ -5836,7 +5836,7 @@
         <v>1664</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1673</v>
+        <v>1737</v>
       </c>
       <c r="C6" t="s">
         <v>1667</v>
@@ -5865,13 +5865,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1676</v>
+        <v>1738</v>
       </c>
       <c r="C7" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -5897,11 +5897,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\10.2.100.51\scada\Reports\ICT" xr:uid="{8F96B5CA-F2D3-46BB-ADEF-22399229D1CA}"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\10.2.100.51\scada\Reports\genschact" xr:uid="{6F1A1B4C-16C9-439B-AAD9-AB253D16BE14}"/>
-    <hyperlink ref="B5" r:id="rId3" display="\\10.2.100.51\scada\Reports\ONEMINREPORT" xr:uid="{2719DF97-17AA-4851-AE5F-8796CDD2EC83}"/>
-    <hyperlink ref="B6" r:id="rId4" display="\\10.2.100.51\scada\Reports\State_gen" xr:uid="{5A859482-7B67-4E67-869F-1BB440ABEB5C}"/>
-    <hyperlink ref="B2" r:id="rId5" display="\\10.2.100.51\scada\Reports\volttemp" xr:uid="{182E7FE1-B692-42CF-8B87-8CB0E1931C4E}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8F96B5CA-F2D3-46BB-ADEF-22399229D1CA}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{6F1A1B4C-16C9-439B-AAD9-AB253D16BE14}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{2719DF97-17AA-4851-AE5F-8796CDD2EC83}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{5A859482-7B67-4E67-869F-1BB440ABEB5C}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{182E7FE1-B692-42CF-8B87-8CB0E1931C4E}"/>
     <hyperlink ref="B7" r:id="rId6" display="\\10.2.100.51\scada\Reports\State_gen" xr:uid="{F966EFD5-41ED-40CE-8090-217F9FA2BABC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5912,8 +5912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D899"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17951,7 +17951,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B860">
         <v>2</v>
@@ -17965,7 +17965,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B861">
         <v>3</v>
@@ -17979,21 +17979,21 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B862">
         <v>4</v>
       </c>
       <c r="C862" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="D862" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B863">
         <v>5</v>
@@ -18002,152 +18002,152 @@
         <v>1512</v>
       </c>
       <c r="D863" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B864">
         <v>6</v>
       </c>
       <c r="C864" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="D864" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B865">
         <v>7</v>
       </c>
       <c r="C865" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="D865" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B866">
         <v>8</v>
       </c>
       <c r="C866" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="D866" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B867">
         <v>9</v>
       </c>
       <c r="C867" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="D867" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B868">
         <v>10</v>
       </c>
       <c r="C868" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="D868" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B869">
         <v>11</v>
       </c>
       <c r="C869" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="D869" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B870">
         <v>12</v>
       </c>
       <c r="C870" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="D870" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B871">
         <v>13</v>
       </c>
       <c r="C871" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="D871" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B872">
         <v>14</v>
       </c>
       <c r="C872" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="D872" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B873">
         <v>15</v>
       </c>
       <c r="C873" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="D873" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B874">
         <v>16</v>
@@ -18161,217 +18161,217 @@
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B875">
         <v>17</v>
       </c>
       <c r="C875" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="D875" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B876">
         <v>18</v>
       </c>
       <c r="C876" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="D876" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B877">
         <v>19</v>
       </c>
       <c r="C877" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="D877" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B878">
         <v>20</v>
       </c>
       <c r="C878" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="D878" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B879">
         <v>21</v>
       </c>
       <c r="C879" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="D879" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B880">
         <v>22</v>
       </c>
       <c r="C880" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="D880" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B881">
         <v>23</v>
       </c>
       <c r="C881" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="D881" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B882">
         <v>24</v>
       </c>
       <c r="C882" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="D882" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B883">
         <v>25</v>
       </c>
       <c r="C883" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="D883" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B884">
         <v>26</v>
       </c>
       <c r="C884" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="D884" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B885">
         <v>27</v>
       </c>
       <c r="C885" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="D885" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B886">
         <v>28</v>
       </c>
       <c r="C886" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="D886" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B887">
         <v>29</v>
       </c>
       <c r="C887" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="D887" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B888">
         <v>30</v>
       </c>
       <c r="C888" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="D888" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B889">
         <v>31</v>
       </c>
       <c r="C889" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="D889" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B890">
         <v>32</v>
@@ -18385,7 +18385,7 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B891">
         <v>33</v>
@@ -18399,7 +18399,7 @@
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B892">
         <v>34</v>
@@ -18413,7 +18413,7 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B893">
         <v>35</v>
@@ -18427,7 +18427,7 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B894">
         <v>36</v>
@@ -18441,49 +18441,49 @@
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B895">
         <v>37</v>
       </c>
       <c r="C895" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="D895" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B896">
         <v>38</v>
       </c>
       <c r="C896" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="D896" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B897">
         <v>39</v>
       </c>
       <c r="C897" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="D897" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B898">
         <v>40</v>
@@ -18497,16 +18497,16 @@
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="B899">
         <v>41</v>
       </c>
       <c r="C899" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="D899" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
   </sheetData>

--- a/master_data/scada_files_info_master.xlsx
+++ b/master_data/scada_files_info_master.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6387A23F-33E4-418D-B230-2E8BE979DC70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F456B0-9954-4917-9CBA-F02CEE867010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5220,22 +5220,22 @@
     <t>SUBSTN.IMEXP_WR.SYSTEM.BARC_TOTAL.ADDT.MW</t>
   </si>
   <si>
-    <t>\\10.2.100.51\scada\Reports\volttemp</t>
-  </si>
-  <si>
-    <t>\\10.2.100.51\scada\Reports\ICT</t>
-  </si>
-  <si>
-    <t>\\10.2.100.51\scada\Reports\genschact</t>
-  </si>
-  <si>
-    <t>\\10.2.100.51\scada\Reports\ONEMINREPORT</t>
-  </si>
-  <si>
-    <t>\\10.2.100.51\scada\Reports\State_gen</t>
-  </si>
-  <si>
-    <t>\\10.2.100.51\scada\Reports\DEMAND</t>
+    <t>\\10.2.100.55\e$\scada_reports\SCADA\Reports\volttemp</t>
+  </si>
+  <si>
+    <t>\\10.2.100.55\e$\scada_reports\SCADA\Reports\ICT</t>
+  </si>
+  <si>
+    <t>\\10.2.100.55\e$\scada_reports\SCADA\Reports\genschact</t>
+  </si>
+  <si>
+    <t>\\10.2.100.55\e$\scada_reports\SCADA\Reports\ONEMINREPORT</t>
+  </si>
+  <si>
+    <t>\\10.2.100.55\e$\scada_reports\SCADA\Reports\State_gen</t>
+  </si>
+  <si>
+    <t>\\10.2.100.55\e$\scada_reports\SCADA\Reports\DEMAND</t>
   </si>
 </sst>
 </file>
@@ -5654,13 +5654,13 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
@@ -5897,11 +5897,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{8F96B5CA-F2D3-46BB-ADEF-22399229D1CA}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{6F1A1B4C-16C9-439B-AAD9-AB253D16BE14}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{2719DF97-17AA-4851-AE5F-8796CDD2EC83}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{5A859482-7B67-4E67-869F-1BB440ABEB5C}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{182E7FE1-B692-42CF-8B87-8CB0E1931C4E}"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\10.2.100.51\scada\Reports\ICT" xr:uid="{8F96B5CA-F2D3-46BB-ADEF-22399229D1CA}"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\10.2.100.51\scada\Reports\genschact" xr:uid="{6F1A1B4C-16C9-439B-AAD9-AB253D16BE14}"/>
+    <hyperlink ref="B5" r:id="rId3" display="\\10.2.100.51\scada\Reports\ONEMINREPORT" xr:uid="{2719DF97-17AA-4851-AE5F-8796CDD2EC83}"/>
+    <hyperlink ref="B6" r:id="rId4" display="\\10.2.100.51\scada\Reports\State_gen" xr:uid="{5A859482-7B67-4E67-869F-1BB440ABEB5C}"/>
+    <hyperlink ref="B2" r:id="rId5" display="\\10.2.100.51\scada\Reports\volttemp" xr:uid="{182E7FE1-B692-42CF-8B87-8CB0E1931C4E}"/>
     <hyperlink ref="B7" r:id="rId6" display="\\10.2.100.51\scada\Reports\State_gen" xr:uid="{F966EFD5-41ED-40CE-8090-217F9FA2BABC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
